--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2876.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2876.xlsx
@@ -354,7 +354,7 @@
         <v>2.062523091546346</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.080223504077197</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2876.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2876.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.203059287737489</v>
+        <v>2.060988187789917</v>
       </c>
       <c r="B1">
-        <v>2.062523091546346</v>
+        <v>2.640792846679688</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.825677633285522</v>
       </c>
       <c r="D1">
-        <v>2.080223504077197</v>
+        <v>3.398555755615234</v>
       </c>
       <c r="E1">
-        <v>1.204738043985493</v>
+        <v>2.256650447845459</v>
       </c>
     </row>
   </sheetData>
